--- a/docs/xcom_perks/Knox's Perk Pack.xlsx
+++ b/docs/xcom_perks/Knox's Perk Pack.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\xcom2_my_tweaks\docs\xcom_perks\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295CFD88-9513-43E1-95F5-8E254D3900E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="19092" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="KPP Perks" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Known Bugs" sheetId="2" r:id="rId5"/>
+    <sheet name="KPP Perks" sheetId="1" r:id="rId1"/>
+    <sheet name="Known Bugs" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1112,37 +1121,45 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -1153,7 +1170,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1247,27 +1264,39 @@
     </fill>
   </fills>
   <borders count="15">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1277,19 +1306,27 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1301,19 +1338,28 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1322,14 +1368,20 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1338,6 +1390,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1352,239 +1407,203 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="69">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="10" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="11" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="12" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="13" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="14" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="15" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="16" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="13" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1774,1930 +1793,1933 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F144"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60:F60"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.75"/>
-    <col customWidth="1" min="2" max="2" width="19.25"/>
-    <col customWidth="1" min="3" max="3" width="23.25"/>
-    <col customWidth="1" min="4" max="4" width="38.13"/>
-    <col customWidth="1" min="5" max="5" width="93.88"/>
-    <col customWidth="1" min="6" max="6" width="30.25"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" customWidth="1"/>
+    <col min="5" max="5" width="93.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
+    </row>
+    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" s="5" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
+    </row>
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="8" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
+    </row>
+    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" ht="19.5" customHeight="1">
-      <c r="A5" s="9" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="45"/>
+    </row>
+    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="52.5" customHeight="1">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="16.5" customHeight="1">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="21"/>
-      <c r="B8" s="18" t="s">
+    <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="48"/>
+      <c r="B8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="21"/>
-      <c r="B9" s="18" t="s">
+    <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="48"/>
+      <c r="B9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="22"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="21"/>
-      <c r="B10" s="18" t="s">
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="48"/>
+      <c r="B10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="22"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="21"/>
-      <c r="B11" s="18" t="s">
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="48"/>
+      <c r="B11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="21"/>
-      <c r="B12" s="18" t="s">
+    <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="48"/>
+      <c r="B12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="21"/>
-      <c r="B13" s="18" t="s">
+    <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="48"/>
+      <c r="B13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24" t="s">
+    <row r="14" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="49"/>
+      <c r="B14" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="26" t="s">
+    <row r="15" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="27"/>
-      <c r="B16" s="18" t="s">
+    <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="51"/>
+      <c r="B16" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="27"/>
-      <c r="B17" s="18" t="s">
+    <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="51"/>
+      <c r="B17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="27"/>
-      <c r="B18" s="18" t="s">
+    <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="51"/>
+      <c r="B18" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="22"/>
-    </row>
-    <row r="19" ht="30.0" customHeight="1">
-      <c r="A19" s="27"/>
-      <c r="B19" s="18" t="s">
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="51"/>
+      <c r="B19" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="31"/>
-      <c r="B20" s="24" t="s">
+    <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="52"/>
+      <c r="B20" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="32"/>
-    </row>
-    <row r="21" ht="27.0" customHeight="1">
-      <c r="A21" s="33" t="s">
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="34" t="s">
+      <c r="F21" s="18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="31"/>
-      <c r="B22" s="24" t="s">
+    <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="52"/>
+      <c r="B22" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="35" t="s">
+    <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="27"/>
-      <c r="B24" s="18" t="s">
+    <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="51"/>
+      <c r="B24" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="18" t="s">
+    <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="51"/>
+      <c r="B25" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="26" ht="27.75" customHeight="1">
-      <c r="A26" s="27"/>
-      <c r="B26" s="18" t="s">
+    <row r="26" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="51"/>
+      <c r="B26" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="27"/>
-      <c r="B27" s="18" t="s">
+    <row r="27" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="51"/>
+      <c r="B27" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="11" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="27"/>
-      <c r="B28" s="18" t="s">
+    <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="51"/>
+      <c r="B28" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="27"/>
-      <c r="B29" s="18" t="s">
+    <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="51"/>
+      <c r="B29" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="27"/>
-      <c r="B30" s="36" t="s">
+    <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="51"/>
+      <c r="B30" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F30" s="22"/>
-    </row>
-    <row r="31" ht="30.75" customHeight="1">
-      <c r="A31" s="27"/>
-      <c r="B31" s="18" t="s">
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="51"/>
+      <c r="B31" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F31" s="34" t="s">
+      <c r="F31" s="18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="27"/>
-      <c r="B32" s="36" t="s">
+    <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="51"/>
+      <c r="B32" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F32" s="28" t="s">
+      <c r="F32" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="27"/>
-      <c r="B33" s="36" t="s">
+    <row r="33" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="51"/>
+      <c r="B33" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F33" s="20" t="s">
+      <c r="F33" s="11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="27"/>
-      <c r="B34" s="36" t="s">
+    <row r="34" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="51"/>
+      <c r="B34" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="E34" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="F34" s="20" t="s">
+      <c r="F34" s="11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="27"/>
-      <c r="B35" s="37" t="s">
+    <row r="35" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="51"/>
+      <c r="B35" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F35" s="20" t="s">
+      <c r="F35" s="11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="27"/>
-      <c r="B36" s="36" t="s">
+    <row r="36" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="51"/>
+      <c r="B36" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F36" s="20" t="s">
+      <c r="F36" s="11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="27"/>
-      <c r="B37" s="36" t="s">
+    <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="51"/>
+      <c r="B37" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E37" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F37" s="20" t="s">
+      <c r="F37" s="11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="27"/>
-      <c r="B38" s="36" t="s">
+    <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="51"/>
+      <c r="B38" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="20" t="s">
+      <c r="F38" s="11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="31"/>
-      <c r="B39" s="38" t="s">
+    <row r="39" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="52"/>
+      <c r="B39" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D39" s="39" t="s">
+      <c r="D39" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="24" t="s">
+      <c r="E39" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="F39" s="25" t="s">
+      <c r="F39" s="13" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="40" t="s">
+    <row r="40" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D40" s="41" t="s">
+      <c r="D40" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="F40" s="22"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="27"/>
-      <c r="B41" s="18" t="s">
+      <c r="F40" s="11"/>
+    </row>
+    <row r="41" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="51"/>
+      <c r="B41" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="F41" s="34" t="s">
+      <c r="F41" s="18" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="27"/>
-      <c r="B42" s="18" t="s">
+    <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="51"/>
+      <c r="B42" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="F42" s="22"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="27"/>
-      <c r="B43" s="18" t="s">
+      <c r="F42" s="11"/>
+    </row>
+    <row r="43" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="51"/>
+      <c r="B43" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="F43" s="20" t="s">
+      <c r="F43" s="11" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="27"/>
-      <c r="B44" s="18" t="s">
+    <row r="44" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="51"/>
+      <c r="B44" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="E44" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="F44" s="20" t="s">
+      <c r="F44" s="11" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="27"/>
-      <c r="B45" s="18" t="s">
+    <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="51"/>
+      <c r="B45" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="F45" s="20" t="s">
+      <c r="F45" s="11" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="27"/>
-      <c r="B46" s="18" t="s">
+    <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="51"/>
+      <c r="B46" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="F46" s="20" t="s">
+      <c r="F46" s="11" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="27"/>
-      <c r="B47" s="18" t="s">
+    <row r="47" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="51"/>
+      <c r="B47" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="D47" s="18" t="s">
+      <c r="D47" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E47" s="18" t="s">
+      <c r="E47" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="F47" s="20" t="s">
+      <c r="F47" s="11" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="31"/>
-      <c r="B48" s="24" t="s">
+    <row r="48" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="52"/>
+      <c r="B48" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="D48" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E48" s="24" t="s">
+      <c r="E48" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="F48" s="25" t="s">
+      <c r="F48" s="13" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="42" t="s">
+    <row r="49" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="59" t="s">
         <v>155</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D49" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="18" t="s">
+      <c r="E49" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F49" s="34" t="s">
+      <c r="F49" s="18" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="27"/>
-      <c r="B50" s="18" t="s">
+    <row r="50" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="51"/>
+      <c r="B50" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E50" s="18" t="s">
+      <c r="E50" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="F50" s="22"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="27"/>
-      <c r="B51" s="36" t="s">
+      <c r="F50" s="11"/>
+    </row>
+    <row r="51" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="51"/>
+      <c r="B51" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D51" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E51" s="18" t="s">
+      <c r="E51" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="F51" s="22"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="27"/>
-      <c r="B52" s="18" t="s">
+      <c r="F51" s="11"/>
+    </row>
+    <row r="52" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="51"/>
+      <c r="B52" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="D52" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E52" s="18" t="s">
+      <c r="E52" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="F52" s="22"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="27"/>
-      <c r="B53" s="18" t="s">
+      <c r="F52" s="11"/>
+    </row>
+    <row r="53" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="51"/>
+      <c r="B53" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="D53" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E53" s="18" t="s">
+      <c r="E53" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="F53" s="22"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="27"/>
-      <c r="B54" s="18" t="s">
+      <c r="F53" s="11"/>
+    </row>
+    <row r="54" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="51"/>
+      <c r="B54" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="D54" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E54" s="18" t="s">
+      <c r="E54" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="F54" s="22"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="27"/>
-      <c r="B55" s="18" t="s">
+      <c r="F54" s="11"/>
+    </row>
+    <row r="55" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="51"/>
+      <c r="B55" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="D55" s="18" t="s">
+      <c r="D55" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E55" s="18" t="s">
+      <c r="E55" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="F55" s="20" t="s">
+      <c r="F55" s="11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="27"/>
-      <c r="B56" s="43" t="s">
+    <row r="56" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="51"/>
+      <c r="B56" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="D56" s="18" t="s">
+      <c r="D56" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E56" s="18" t="s">
+      <c r="E56" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="F56" s="20" t="s">
+      <c r="F56" s="11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="31"/>
-      <c r="B57" s="18" t="s">
+    <row r="57" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="52"/>
+      <c r="B57" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="D57" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E57" s="18" t="s">
+      <c r="E57" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="F57" s="20" t="s">
+      <c r="F57" s="11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="44" t="s">
+    <row r="58" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A58" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B58" s="45" t="s">
+      <c r="B58" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="C58" s="45" t="s">
+      <c r="C58" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="D58" s="45" t="s">
+      <c r="D58" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="E58" s="46" t="s">
+      <c r="E58" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="F58" s="47" t="s">
+      <c r="F58" s="28" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="48" t="s">
+    <row r="59" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="60" t="s">
         <v>190</v>
       </c>
-      <c r="B59" s="49" t="s">
+      <c r="B59" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="7"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="50"/>
-      <c r="B60" s="51" t="s">
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="45"/>
+    </row>
+    <row r="60" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="61"/>
+      <c r="B60" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="C60" s="52"/>
-      <c r="D60" s="52"/>
-      <c r="E60" s="52"/>
-      <c r="F60" s="23"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="53" t="s">
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="64"/>
+      <c r="F60" s="49"/>
+    </row>
+    <row r="61" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="65" t="s">
         <v>193</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E61" s="18" t="s">
+      <c r="E61" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="F61" s="22"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="27"/>
-      <c r="B62" s="18" t="s">
+      <c r="F61" s="11"/>
+    </row>
+    <row r="62" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="51"/>
+      <c r="B62" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="E62" s="18" t="s">
+      <c r="E62" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="F62" s="22"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="27"/>
-      <c r="B63" s="18" t="s">
+      <c r="F62" s="11"/>
+    </row>
+    <row r="63" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="51"/>
+      <c r="B63" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="E63" s="18" t="s">
+      <c r="E63" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="F63" s="22"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="27"/>
-      <c r="B64" s="18" t="s">
+      <c r="F63" s="11"/>
+    </row>
+    <row r="64" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A64" s="51"/>
+      <c r="B64" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="E64" s="18" t="s">
+      <c r="E64" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="F64" s="22"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="27"/>
-      <c r="B65" s="18" t="s">
+      <c r="F64" s="11"/>
+    </row>
+    <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="51"/>
+      <c r="B65" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="E65" s="18" t="s">
+      <c r="E65" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="F65" s="22"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="27"/>
-      <c r="B66" s="18" t="s">
+      <c r="F65" s="11"/>
+    </row>
+    <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A66" s="51"/>
+      <c r="B66" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="E66" s="18" t="s">
+      <c r="E66" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="F66" s="22"/>
-    </row>
-    <row r="67" ht="30.0" customHeight="1">
-      <c r="A67" s="27"/>
-      <c r="B67" s="29" t="s">
+      <c r="F66" s="11"/>
+    </row>
+    <row r="67" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="51"/>
+      <c r="B67" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C67" s="54"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="29" t="s">
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="F67" s="55"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="27"/>
-      <c r="B68" s="18" t="s">
+      <c r="F67" s="18"/>
+    </row>
+    <row r="68" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="51"/>
+      <c r="B68" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="E68" s="18" t="s">
+      <c r="E68" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="F68" s="22"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="27"/>
-      <c r="B69" s="18" t="s">
+      <c r="F68" s="11"/>
+    </row>
+    <row r="69" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A69" s="51"/>
+      <c r="B69" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="E69" s="18" t="s">
+      <c r="E69" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="F69" s="22"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="27"/>
-      <c r="B70" s="18" t="s">
+      <c r="F69" s="11"/>
+    </row>
+    <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A70" s="51"/>
+      <c r="B70" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="E70" s="18" t="s">
+      <c r="E70" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="F70" s="22"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="27"/>
-      <c r="B71" s="18" t="s">
+      <c r="F70" s="11"/>
+    </row>
+    <row r="71" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A71" s="51"/>
+      <c r="B71" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="E71" s="18" t="s">
+      <c r="E71" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="F71" s="22"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="27"/>
-      <c r="B72" s="18" t="s">
+      <c r="F71" s="11"/>
+    </row>
+    <row r="72" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A72" s="51"/>
+      <c r="B72" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="E72" s="18" t="s">
+      <c r="E72" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="F72" s="22"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="27"/>
-      <c r="B73" s="18" t="s">
+      <c r="F72" s="11"/>
+    </row>
+    <row r="73" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A73" s="51"/>
+      <c r="B73" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="E73" s="18" t="s">
+      <c r="E73" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="F73" s="20" t="s">
+      <c r="F73" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="27"/>
-      <c r="B74" s="18" t="s">
+    <row r="74" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A74" s="51"/>
+      <c r="B74" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="E74" s="18" t="s">
+      <c r="E74" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="F74" s="22"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="27"/>
-      <c r="B75" s="18" t="s">
+      <c r="F74" s="11"/>
+    </row>
+    <row r="75" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A75" s="51"/>
+      <c r="B75" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E75" s="18" t="s">
+      <c r="E75" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="F75" s="22"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="27"/>
-      <c r="B76" s="18" t="s">
+      <c r="F75" s="11"/>
+    </row>
+    <row r="76" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A76" s="51"/>
+      <c r="B76" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="E76" s="18" t="s">
+      <c r="E76" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="F76" s="22"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="27"/>
-      <c r="B77" s="18" t="s">
+      <c r="F76" s="11"/>
+    </row>
+    <row r="77" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A77" s="51"/>
+      <c r="B77" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="E77" s="18" t="s">
+      <c r="E77" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="F77" s="22"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="27"/>
-      <c r="B78" s="18" t="s">
+      <c r="F77" s="11"/>
+    </row>
+    <row r="78" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A78" s="51"/>
+      <c r="B78" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="E78" s="18" t="s">
+      <c r="E78" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="F78" s="22"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="27"/>
-      <c r="B79" s="18" t="s">
+      <c r="F78" s="11"/>
+    </row>
+    <row r="79" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A79" s="51"/>
+      <c r="B79" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="E79" s="18" t="s">
+      <c r="E79" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="F79" s="22"/>
-    </row>
-    <row r="80" ht="30.75" customHeight="1">
-      <c r="A80" s="27"/>
-      <c r="B80" s="18" t="s">
+      <c r="F79" s="11"/>
+    </row>
+    <row r="80" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="51"/>
+      <c r="B80" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="E80" s="29" t="s">
+      <c r="E80" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="F80" s="22"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="27"/>
-      <c r="B81" s="18" t="s">
+      <c r="F80" s="11"/>
+    </row>
+    <row r="81" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A81" s="51"/>
+      <c r="B81" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="E81" s="18" t="s">
+      <c r="E81" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="F81" s="22"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="27"/>
-      <c r="B82" s="18" t="s">
+      <c r="F81" s="11"/>
+    </row>
+    <row r="82" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A82" s="51"/>
+      <c r="B82" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="E82" s="18" t="s">
+      <c r="E82" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="F82" s="22"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="27"/>
-      <c r="B83" s="18" t="s">
+      <c r="F82" s="11"/>
+    </row>
+    <row r="83" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A83" s="51"/>
+      <c r="B83" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="E83" s="18" t="s">
+      <c r="E83" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="F83" s="22"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="27"/>
-      <c r="B84" s="18" t="s">
+      <c r="F83" s="11"/>
+    </row>
+    <row r="84" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A84" s="51"/>
+      <c r="B84" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="E84" s="18" t="s">
+      <c r="E84" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="F84" s="22"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="27"/>
-      <c r="B85" s="18" t="s">
+      <c r="F84" s="11"/>
+    </row>
+    <row r="85" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="51"/>
+      <c r="B85" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="E85" s="18" t="s">
+      <c r="E85" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="F85" s="22"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="27"/>
-      <c r="B86" s="18" t="s">
+      <c r="F85" s="11"/>
+    </row>
+    <row r="86" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="51"/>
+      <c r="B86" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="E86" s="18" t="s">
+      <c r="E86" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="F86" s="22"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="31"/>
-      <c r="B87" s="24" t="s">
+      <c r="F86" s="11"/>
+    </row>
+    <row r="87" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A87" s="52"/>
+      <c r="B87" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="C87" s="56"/>
-      <c r="D87" s="56"/>
-      <c r="E87" s="24" t="s">
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="F87" s="57"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="58" t="s">
+      <c r="F87" s="13"/>
+    </row>
+    <row r="88" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A88" s="54" t="s">
         <v>246</v>
       </c>
-      <c r="B88" s="18" t="s">
+      <c r="B88" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="E88" s="18" t="s">
+      <c r="E88" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="F88" s="20" t="s">
+      <c r="F88" s="11" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="27"/>
-      <c r="B89" s="18" t="s">
+    <row r="89" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A89" s="51"/>
+      <c r="B89" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="E89" s="18" t="s">
+      <c r="E89" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="F89" s="20" t="s">
+      <c r="F89" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="27"/>
-      <c r="B90" s="18" t="s">
+    <row r="90" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A90" s="51"/>
+      <c r="B90" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="E90" s="18" t="s">
+      <c r="E90" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="F90" s="22"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="27"/>
-      <c r="B91" s="18" t="s">
+      <c r="F90" s="11"/>
+    </row>
+    <row r="91" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A91" s="51"/>
+      <c r="B91" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="E91" s="18" t="s">
+      <c r="E91" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="F91" s="22"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="27"/>
-      <c r="B92" s="18" t="s">
+      <c r="F91" s="11"/>
+    </row>
+    <row r="92" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A92" s="51"/>
+      <c r="B92" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="E92" s="18" t="s">
+      <c r="E92" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="F92" s="22"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="27"/>
-      <c r="B93" s="18" t="s">
+      <c r="F92" s="11"/>
+    </row>
+    <row r="93" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A93" s="51"/>
+      <c r="B93" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="E93" s="18" t="s">
+      <c r="E93" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="F93" s="22"/>
-    </row>
-    <row r="94" ht="26.25" customHeight="1">
-      <c r="A94" s="27"/>
-      <c r="B94" s="29" t="s">
+      <c r="F93" s="11"/>
+    </row>
+    <row r="94" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="51"/>
+      <c r="B94" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="E94" s="18" t="s">
+      <c r="E94" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="F94" s="22"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="27"/>
-      <c r="B95" s="18" t="s">
+      <c r="F94" s="11"/>
+    </row>
+    <row r="95" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A95" s="51"/>
+      <c r="B95" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="E95" s="18" t="s">
+      <c r="E95" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="F95" s="22"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="27"/>
-      <c r="B96" s="18" t="s">
+      <c r="F95" s="11"/>
+    </row>
+    <row r="96" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A96" s="51"/>
+      <c r="B96" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="E96" s="18" t="s">
+      <c r="E96" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="F96" s="22"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="27"/>
-      <c r="B97" s="18" t="s">
+      <c r="F96" s="11"/>
+    </row>
+    <row r="97" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A97" s="51"/>
+      <c r="B97" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="E97" s="18" t="s">
+      <c r="E97" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="F97" s="20" t="s">
+      <c r="F97" s="11" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="27"/>
-      <c r="B98" s="18" t="s">
+    <row r="98" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A98" s="51"/>
+      <c r="B98" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="E98" s="18" t="s">
+      <c r="E98" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="F98" s="20" t="s">
+      <c r="F98" s="11" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="27"/>
-      <c r="B99" s="18" t="s">
+    <row r="99" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A99" s="51"/>
+      <c r="B99" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="E99" s="18" t="s">
+      <c r="E99" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="F99" s="20" t="s">
+      <c r="F99" s="11" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="100" ht="30.0" customHeight="1">
-      <c r="A100" s="27"/>
-      <c r="B100" s="18" t="s">
+    <row r="100" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="51"/>
+      <c r="B100" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="E100" s="18" t="s">
+      <c r="E100" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="F100" s="34" t="s">
+      <c r="F100" s="18" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="27"/>
-      <c r="B101" s="18" t="s">
+    <row r="101" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A101" s="51"/>
+      <c r="B101" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="E101" s="18" t="s">
+      <c r="E101" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="F101" s="20" t="s">
+      <c r="F101" s="11" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="27"/>
-      <c r="B102" s="18" t="s">
+    <row r="102" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A102" s="51"/>
+      <c r="B102" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="E102" s="18" t="s">
+      <c r="E102" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="F102" s="22"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="27"/>
-      <c r="B103" s="18" t="s">
+      <c r="F102" s="11"/>
+    </row>
+    <row r="103" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A103" s="51"/>
+      <c r="B103" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="E103" s="18" t="s">
+      <c r="E103" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="F103" s="20" t="s">
+      <c r="F103" s="11" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="27"/>
-      <c r="B104" s="18" t="s">
+    <row r="104" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A104" s="51"/>
+      <c r="B104" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="E104" s="18" t="s">
+      <c r="E104" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="F104" s="20" t="s">
+      <c r="F104" s="11" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="27"/>
-      <c r="B105" s="18" t="s">
+    <row r="105" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A105" s="51"/>
+      <c r="B105" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="E105" s="18" t="s">
+      <c r="E105" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="F105" s="20" t="s">
+      <c r="F105" s="11" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="27"/>
-      <c r="B106" s="18" t="s">
+    <row r="106" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A106" s="51"/>
+      <c r="B106" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="E106" s="18" t="s">
+      <c r="E106" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="F106" s="20" t="s">
+      <c r="F106" s="11" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="27"/>
-      <c r="B107" s="18" t="s">
+    <row r="107" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A107" s="51"/>
+      <c r="B107" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="E107" s="18" t="s">
+      <c r="E107" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="F107" s="20" t="s">
+      <c r="F107" s="11" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="27"/>
-      <c r="B108" s="18" t="s">
+    <row r="108" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A108" s="51"/>
+      <c r="B108" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="E108" s="18" t="s">
+      <c r="E108" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="F108" s="20" t="s">
+      <c r="F108" s="11" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="27"/>
-      <c r="B109" s="18" t="s">
+    <row r="109" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A109" s="51"/>
+      <c r="B109" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="E109" s="18" t="s">
+      <c r="E109" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="F109" s="20" t="s">
+      <c r="F109" s="11" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="31"/>
-      <c r="B110" s="24" t="s">
+    <row r="110" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A110" s="52"/>
+      <c r="B110" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="C110" s="56"/>
-      <c r="D110" s="56"/>
-      <c r="E110" s="24" t="s">
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="F110" s="25" t="s">
+      <c r="F110" s="13" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="59" t="s">
+    <row r="111" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A111" s="55" t="s">
         <v>294</v>
       </c>
-      <c r="B111" s="18" t="s">
+      <c r="B111" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="E111" s="18" t="s">
+      <c r="E111" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="F111" s="22"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="27"/>
-      <c r="B112" s="18" t="s">
+      <c r="F111" s="11"/>
+    </row>
+    <row r="112" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A112" s="51"/>
+      <c r="B112" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="E112" s="18" t="s">
+      <c r="E112" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="F112" s="22"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="27"/>
-      <c r="B113" s="18" t="s">
+      <c r="F112" s="11"/>
+    </row>
+    <row r="113" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A113" s="51"/>
+      <c r="B113" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E113" s="18" t="s">
+      <c r="E113" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="F113" s="22"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="27"/>
-      <c r="B114" s="29" t="s">
+      <c r="F113" s="11"/>
+    </row>
+    <row r="114" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A114" s="51"/>
+      <c r="B114" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="E114" s="18" t="s">
+      <c r="E114" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="F114" s="22"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="27"/>
-      <c r="B115" s="18" t="s">
+      <c r="F114" s="11"/>
+    </row>
+    <row r="115" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A115" s="51"/>
+      <c r="B115" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="E115" s="18" t="s">
+      <c r="E115" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="F115" s="22"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="27"/>
-      <c r="B116" s="18" t="s">
+      <c r="F115" s="11"/>
+    </row>
+    <row r="116" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A116" s="51"/>
+      <c r="B116" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="E116" s="18" t="s">
+      <c r="E116" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="F116" s="20" t="s">
+      <c r="F116" s="11" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="27"/>
-      <c r="B117" s="18" t="s">
+    <row r="117" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A117" s="51"/>
+      <c r="B117" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="E117" s="18" t="s">
+      <c r="E117" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="F117" s="20" t="s">
+      <c r="F117" s="11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="27"/>
-      <c r="B118" s="18" t="s">
+    <row r="118" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A118" s="51"/>
+      <c r="B118" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="E118" s="18" t="s">
+      <c r="E118" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F118" s="30" t="s">
+      <c r="F118" s="16" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="27"/>
-      <c r="B119" s="18" t="s">
+    <row r="119" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A119" s="51"/>
+      <c r="B119" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="E119" s="18" t="s">
+      <c r="E119" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="F119" s="20" t="s">
+      <c r="F119" s="11" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="27"/>
-      <c r="B120" s="18" t="s">
+    <row r="120" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A120" s="51"/>
+      <c r="B120" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="E120" s="18" t="s">
+      <c r="E120" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="F120" s="20" t="s">
+      <c r="F120" s="11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="27"/>
-      <c r="B121" s="18" t="s">
+    <row r="121" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A121" s="51"/>
+      <c r="B121" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="E121" s="29" t="s">
+      <c r="E121" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="F121" s="22"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="27"/>
-      <c r="B122" s="18" t="s">
+      <c r="F121" s="11"/>
+    </row>
+    <row r="122" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A122" s="51"/>
+      <c r="B122" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="E122" s="29" t="s">
+      <c r="E122" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="F122" s="20" t="s">
+      <c r="F122" s="11" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="27"/>
-      <c r="B123" s="18" t="s">
+    <row r="123" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A123" s="51"/>
+      <c r="B123" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="E123" s="29" t="s">
+      <c r="E123" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="F123" s="20" t="s">
+      <c r="F123" s="11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="27"/>
-      <c r="B124" s="18" t="s">
+    <row r="124" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A124" s="51"/>
+      <c r="B124" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="E124" s="18" t="s">
+      <c r="E124" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="F124" s="20" t="s">
+      <c r="F124" s="11" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="27"/>
-      <c r="B125" s="18" t="s">
+    <row r="125" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A125" s="51"/>
+      <c r="B125" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="E125" s="18" t="s">
+      <c r="E125" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="F125" s="22"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="27"/>
-      <c r="B126" s="18" t="s">
+      <c r="F125" s="11"/>
+    </row>
+    <row r="126" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A126" s="51"/>
+      <c r="B126" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="E126" s="18" t="s">
+      <c r="E126" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="F126" s="22"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="27"/>
-      <c r="B127" s="18" t="s">
+      <c r="F126" s="11"/>
+    </row>
+    <row r="127" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A127" s="51"/>
+      <c r="B127" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="E127" s="18" t="s">
+      <c r="E127" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="F127" s="22"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="27"/>
-      <c r="B128" s="18" t="s">
+      <c r="F127" s="11"/>
+    </row>
+    <row r="128" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A128" s="51"/>
+      <c r="B128" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="E128" s="18" t="s">
+      <c r="E128" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="F128" s="22"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="27"/>
-      <c r="B129" s="18" t="s">
+      <c r="F128" s="11"/>
+    </row>
+    <row r="129" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A129" s="51"/>
+      <c r="B129" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="E129" s="29" t="s">
+      <c r="E129" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="F129" s="20" t="s">
+      <c r="F129" s="11" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="27"/>
-      <c r="B130" s="18" t="s">
+    <row r="130" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A130" s="51"/>
+      <c r="B130" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="E130" s="18" t="s">
+      <c r="E130" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="F130" s="22"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="27"/>
-      <c r="B131" s="18" t="s">
+      <c r="F130" s="11"/>
+    </row>
+    <row r="131" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A131" s="51"/>
+      <c r="B131" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="E131" s="18" t="s">
+      <c r="E131" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="F131" s="22"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="27"/>
-      <c r="B132" s="18" t="s">
+      <c r="F131" s="11"/>
+    </row>
+    <row r="132" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A132" s="51"/>
+      <c r="B132" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="E132" s="18" t="s">
+      <c r="E132" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="F132" s="20" t="s">
+      <c r="F132" s="11" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="27"/>
-      <c r="B133" s="18" t="s">
+    <row r="133" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A133" s="51"/>
+      <c r="B133" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="E133" s="18" t="s">
+      <c r="E133" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="F133" s="22"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="27"/>
-      <c r="B134" s="18" t="s">
+      <c r="F133" s="11"/>
+    </row>
+    <row r="134" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A134" s="51"/>
+      <c r="B134" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="E134" s="18" t="s">
+      <c r="E134" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="F134" s="20" t="s">
+      <c r="F134" s="11" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="27"/>
-      <c r="B135" s="18" t="s">
+    <row r="135" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A135" s="51"/>
+      <c r="B135" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="E135" s="18" t="s">
+      <c r="E135" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="F135" s="20" t="s">
+      <c r="F135" s="11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="27"/>
-      <c r="B136" s="18" t="s">
+    <row r="136" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A136" s="51"/>
+      <c r="B136" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="E136" s="18" t="s">
+      <c r="E136" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="F136" s="22"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="31"/>
-      <c r="B137" s="24" t="s">
+      <c r="F136" s="11"/>
+    </row>
+    <row r="137" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A137" s="52"/>
+      <c r="B137" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="C137" s="56"/>
-      <c r="D137" s="56"/>
-      <c r="E137" s="24" t="s">
+      <c r="C137" s="12"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="F137" s="25"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="60" t="s">
+      <c r="F137" s="13"/>
+    </row>
+    <row r="138" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A138" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="F138" s="20"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="21"/>
-      <c r="F139" s="20"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="21"/>
-      <c r="F140" s="22"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="21"/>
-      <c r="F141" s="22"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="21"/>
-      <c r="F142" s="22"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="21"/>
-      <c r="F143" s="22"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="23"/>
-      <c r="B144" s="56"/>
-      <c r="C144" s="56"/>
-      <c r="D144" s="56"/>
-      <c r="E144" s="56"/>
-      <c r="F144" s="57"/>
+      <c r="F138" s="11"/>
+    </row>
+    <row r="139" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A139" s="48"/>
+      <c r="F139" s="11"/>
+    </row>
+    <row r="140" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A140" s="48"/>
+      <c r="F140" s="11"/>
+    </row>
+    <row r="141" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A141" s="48"/>
+      <c r="F141" s="11"/>
+    </row>
+    <row r="142" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A142" s="48"/>
+      <c r="F142" s="11"/>
+    </row>
+    <row r="143" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A143" s="48"/>
+      <c r="F143" s="11"/>
+    </row>
+    <row r="144" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A144" s="49"/>
+      <c r="B144" s="12"/>
+      <c r="C144" s="12"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="12"/>
+      <c r="F144" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A7:A14"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="A61:A87"/>
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A88:A110"/>
@@ -3707,162 +3729,166 @@
     <mergeCell ref="A40:A48"/>
     <mergeCell ref="A49:A57"/>
     <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="A61:A87"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A7:A14"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.5"/>
-    <col customWidth="1" min="2" max="2" width="31.0"/>
-    <col customWidth="1" min="3" max="3" width="26.38"/>
-    <col customWidth="1" min="4" max="4" width="97.5"/>
-    <col customWidth="1" min="5" max="5" width="29.25"/>
-    <col customWidth="1" min="6" max="6" width="20.88"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="97.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="29" t="s">
         <v>342</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="30" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="F2" s="32" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="33" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="F4" s="67" t="s">
+      <c r="F4" s="34" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="24" t="s">
+      <c r="C5" s="64"/>
+      <c r="D5" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="35" t="s">
         <v>358</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="36" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="F6" s="71" t="s">
+      <c r="F6" s="37" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="24" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="24" t="s">
+      <c r="C7" s="64"/>
+      <c r="D7" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="E7" s="68" t="s">
+      <c r="E7" s="35" t="s">
         <v>364</v>
       </c>
-      <c r="F7" s="72" t="s">
+      <c r="F7" s="38" t="s">
         <v>353</v>
       </c>
     </row>
@@ -3871,6 +3897,6 @@
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="C6:C7"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/xcom_perks/Knox's Perk Pack.xlsx
+++ b/docs/xcom_perks/Knox's Perk Pack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\xcom2_my_tweaks\docs\xcom_perks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295CFD88-9513-43E1-95F5-8E254D3900E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3FDC14-C002-4519-B764-7F5D9B08D0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19092" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KPP Perks" sheetId="1" r:id="rId1"/>
@@ -1517,32 +1517,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1555,6 +1547,7 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1568,14 +1561,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1805,8 +1805,8 @@
   </sheetPr>
   <dimension ref="A1:F144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60:F60"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1820,44 +1820,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="61"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="41"/>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="45"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -1900,7 +1900,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="65" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -1920,7 +1920,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="48"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="9" t="s">
         <v>17</v>
       </c>
@@ -1938,7 +1938,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="48"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="9" t="s">
         <v>25</v>
       </c>
@@ -1954,7 +1954,7 @@
       <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="48"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="9" t="s">
         <v>28</v>
       </c>
@@ -1970,7 +1970,7 @@
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="48"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="9" t="s">
         <v>31</v>
       </c>
@@ -1988,7 +1988,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="48"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="9" t="s">
         <v>35</v>
       </c>
@@ -2006,7 +2006,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="48"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="9" t="s">
         <v>39</v>
       </c>
@@ -2024,7 +2024,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="49"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="12" t="s">
         <v>42</v>
       </c>
@@ -2042,7 +2042,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="48" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -2062,7 +2062,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="51"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="9" t="s">
         <v>51</v>
       </c>
@@ -2080,7 +2080,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="51"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="9" t="s">
         <v>54</v>
       </c>
@@ -2098,7 +2098,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="51"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="9" t="s">
         <v>57</v>
       </c>
@@ -2114,7 +2114,7 @@
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="51"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="9" t="s">
         <v>60</v>
       </c>
@@ -2132,7 +2132,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="52"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="12" t="s">
         <v>63</v>
       </c>
@@ -2148,7 +2148,7 @@
       <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="49" t="s">
         <v>66</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -2168,7 +2168,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="52"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="12" t="s">
         <v>67</v>
       </c>
@@ -2186,7 +2186,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="54" t="s">
         <v>74</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -2206,7 +2206,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="51"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="9" t="s">
         <v>80</v>
       </c>
@@ -2224,7 +2224,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="51"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="9" t="s">
         <v>83</v>
       </c>
@@ -2242,7 +2242,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="51"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="9" t="s">
         <v>86</v>
       </c>
@@ -2260,7 +2260,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="51"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="9" t="s">
         <v>90</v>
       </c>
@@ -2278,7 +2278,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="51"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="9" t="s">
         <v>94</v>
       </c>
@@ -2296,7 +2296,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="51"/>
+      <c r="A29" s="46"/>
       <c r="B29" s="9" t="s">
         <v>94</v>
       </c>
@@ -2314,7 +2314,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="51"/>
+      <c r="A30" s="46"/>
       <c r="B30" s="19" t="s">
         <v>99</v>
       </c>
@@ -2330,7 +2330,7 @@
       <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="51"/>
+      <c r="A31" s="46"/>
       <c r="B31" s="9" t="s">
         <v>102</v>
       </c>
@@ -2348,7 +2348,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="51"/>
+      <c r="A32" s="46"/>
       <c r="B32" s="19" t="s">
         <v>106</v>
       </c>
@@ -2366,7 +2366,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="51"/>
+      <c r="A33" s="46"/>
       <c r="B33" s="19" t="s">
         <v>109</v>
       </c>
@@ -2384,7 +2384,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="51"/>
+      <c r="A34" s="46"/>
       <c r="B34" s="19" t="s">
         <v>113</v>
       </c>
@@ -2402,7 +2402,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="51"/>
+      <c r="A35" s="46"/>
       <c r="B35" s="20" t="s">
         <v>116</v>
       </c>
@@ -2420,7 +2420,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="51"/>
+      <c r="A36" s="46"/>
       <c r="B36" s="19" t="s">
         <v>106</v>
       </c>
@@ -2438,7 +2438,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="51"/>
+      <c r="A37" s="46"/>
       <c r="B37" s="19" t="s">
         <v>109</v>
       </c>
@@ -2456,7 +2456,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="51"/>
+      <c r="A38" s="46"/>
       <c r="B38" s="19" t="s">
         <v>113</v>
       </c>
@@ -2474,7 +2474,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="52"/>
+      <c r="A39" s="47"/>
       <c r="B39" s="21" t="s">
         <v>116</v>
       </c>
@@ -2492,7 +2492,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="58" t="s">
+      <c r="A40" s="55" t="s">
         <v>124</v>
       </c>
       <c r="B40" s="9" t="s">
@@ -2510,7 +2510,7 @@
       <c r="F40" s="11"/>
     </row>
     <row r="41" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="51"/>
+      <c r="A41" s="46"/>
       <c r="B41" s="9" t="s">
         <v>128</v>
       </c>
@@ -2525,7 +2525,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="51"/>
+      <c r="A42" s="46"/>
       <c r="B42" s="9" t="s">
         <v>132</v>
       </c>
@@ -2538,7 +2538,7 @@
       <c r="F42" s="11"/>
     </row>
     <row r="43" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="51"/>
+      <c r="A43" s="46"/>
       <c r="B43" s="9" t="s">
         <v>135</v>
       </c>
@@ -2556,7 +2556,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="51"/>
+      <c r="A44" s="46"/>
       <c r="B44" s="9" t="s">
         <v>139</v>
       </c>
@@ -2574,7 +2574,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="51"/>
+      <c r="A45" s="46"/>
       <c r="B45" s="9" t="s">
         <v>142</v>
       </c>
@@ -2592,7 +2592,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="51"/>
+      <c r="A46" s="46"/>
       <c r="B46" s="9" t="s">
         <v>145</v>
       </c>
@@ -2610,7 +2610,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="51"/>
+      <c r="A47" s="46"/>
       <c r="B47" s="9" t="s">
         <v>149</v>
       </c>
@@ -2628,7 +2628,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="52"/>
+      <c r="A48" s="47"/>
       <c r="B48" s="12" t="s">
         <v>152</v>
       </c>
@@ -2646,7 +2646,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="59" t="s">
+      <c r="A49" s="56" t="s">
         <v>155</v>
       </c>
       <c r="B49" s="9" t="s">
@@ -2666,7 +2666,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="51"/>
+      <c r="A50" s="46"/>
       <c r="B50" s="9" t="s">
         <v>160</v>
       </c>
@@ -2682,7 +2682,7 @@
       <c r="F50" s="11"/>
     </row>
     <row r="51" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="51"/>
+      <c r="A51" s="46"/>
       <c r="B51" s="19" t="s">
         <v>163</v>
       </c>
@@ -2698,7 +2698,7 @@
       <c r="F51" s="11"/>
     </row>
     <row r="52" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="51"/>
+      <c r="A52" s="46"/>
       <c r="B52" s="9" t="s">
         <v>166</v>
       </c>
@@ -2714,7 +2714,7 @@
       <c r="F52" s="11"/>
     </row>
     <row r="53" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="51"/>
+      <c r="A53" s="46"/>
       <c r="B53" s="9" t="s">
         <v>169</v>
       </c>
@@ -2730,7 +2730,7 @@
       <c r="F53" s="11"/>
     </row>
     <row r="54" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="51"/>
+      <c r="A54" s="46"/>
       <c r="B54" s="9" t="s">
         <v>172</v>
       </c>
@@ -2746,7 +2746,7 @@
       <c r="F54" s="11"/>
     </row>
     <row r="55" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="51"/>
+      <c r="A55" s="46"/>
       <c r="B55" s="9" t="s">
         <v>175</v>
       </c>
@@ -2764,7 +2764,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="51"/>
+      <c r="A56" s="46"/>
       <c r="B56" s="24" t="s">
         <v>179</v>
       </c>
@@ -2782,7 +2782,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="52"/>
+      <c r="A57" s="47"/>
       <c r="B57" s="9" t="s">
         <v>182</v>
       </c>
@@ -2820,29 +2820,29 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="60" t="s">
+      <c r="A59" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="B59" s="62" t="s">
+      <c r="B59" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="44"/>
-      <c r="F59" s="45"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="41"/>
     </row>
     <row r="60" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="61"/>
-      <c r="B60" s="63" t="s">
+      <c r="A60" s="58"/>
+      <c r="B60" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="C60" s="64"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="64"/>
-      <c r="F60" s="49"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="44"/>
     </row>
     <row r="61" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="65" t="s">
+      <c r="A61" s="45" t="s">
         <v>193</v>
       </c>
       <c r="B61" s="9" t="s">
@@ -2854,7 +2854,7 @@
       <c r="F61" s="11"/>
     </row>
     <row r="62" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="51"/>
+      <c r="A62" s="46"/>
       <c r="B62" s="9" t="s">
         <v>196</v>
       </c>
@@ -2864,7 +2864,7 @@
       <c r="F62" s="11"/>
     </row>
     <row r="63" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="51"/>
+      <c r="A63" s="46"/>
       <c r="B63" s="9" t="s">
         <v>198</v>
       </c>
@@ -2874,7 +2874,7 @@
       <c r="F63" s="11"/>
     </row>
     <row r="64" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="51"/>
+      <c r="A64" s="46"/>
       <c r="B64" s="9" t="s">
         <v>200</v>
       </c>
@@ -2884,7 +2884,7 @@
       <c r="F64" s="11"/>
     </row>
     <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="51"/>
+      <c r="A65" s="46"/>
       <c r="B65" s="9" t="s">
         <v>202</v>
       </c>
@@ -2894,7 +2894,7 @@
       <c r="F65" s="11"/>
     </row>
     <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="51"/>
+      <c r="A66" s="46"/>
       <c r="B66" s="9" t="s">
         <v>204</v>
       </c>
@@ -2904,7 +2904,7 @@
       <c r="F66" s="11"/>
     </row>
     <row r="67" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="51"/>
+      <c r="A67" s="46"/>
       <c r="B67" s="15" t="s">
         <v>206</v>
       </c>
@@ -2916,7 +2916,7 @@
       <c r="F67" s="18"/>
     </row>
     <row r="68" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="51"/>
+      <c r="A68" s="46"/>
       <c r="B68" s="9" t="s">
         <v>208</v>
       </c>
@@ -2926,7 +2926,7 @@
       <c r="F68" s="11"/>
     </row>
     <row r="69" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="51"/>
+      <c r="A69" s="46"/>
       <c r="B69" s="9" t="s">
         <v>210</v>
       </c>
@@ -2936,7 +2936,7 @@
       <c r="F69" s="11"/>
     </row>
     <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="51"/>
+      <c r="A70" s="46"/>
       <c r="B70" s="9" t="s">
         <v>212</v>
       </c>
@@ -2946,7 +2946,7 @@
       <c r="F70" s="11"/>
     </row>
     <row r="71" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="51"/>
+      <c r="A71" s="46"/>
       <c r="B71" s="9" t="s">
         <v>214</v>
       </c>
@@ -2956,7 +2956,7 @@
       <c r="F71" s="11"/>
     </row>
     <row r="72" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="51"/>
+      <c r="A72" s="46"/>
       <c r="B72" s="9" t="s">
         <v>216</v>
       </c>
@@ -2966,7 +2966,7 @@
       <c r="F72" s="11"/>
     </row>
     <row r="73" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="51"/>
+      <c r="A73" s="46"/>
       <c r="B73" s="9" t="s">
         <v>218</v>
       </c>
@@ -2978,7 +2978,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="51"/>
+      <c r="A74" s="46"/>
       <c r="B74" s="9" t="s">
         <v>220</v>
       </c>
@@ -2988,7 +2988,7 @@
       <c r="F74" s="11"/>
     </row>
     <row r="75" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="51"/>
+      <c r="A75" s="46"/>
       <c r="B75" s="9" t="s">
         <v>222</v>
       </c>
@@ -2998,7 +2998,7 @@
       <c r="F75" s="11"/>
     </row>
     <row r="76" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="51"/>
+      <c r="A76" s="46"/>
       <c r="B76" s="9" t="s">
         <v>224</v>
       </c>
@@ -3008,7 +3008,7 @@
       <c r="F76" s="11"/>
     </row>
     <row r="77" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="51"/>
+      <c r="A77" s="46"/>
       <c r="B77" s="9" t="s">
         <v>224</v>
       </c>
@@ -3018,7 +3018,7 @@
       <c r="F77" s="11"/>
     </row>
     <row r="78" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="51"/>
+      <c r="A78" s="46"/>
       <c r="B78" s="9" t="s">
         <v>227</v>
       </c>
@@ -3028,7 +3028,7 @@
       <c r="F78" s="11"/>
     </row>
     <row r="79" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="51"/>
+      <c r="A79" s="46"/>
       <c r="B79" s="9" t="s">
         <v>229</v>
       </c>
@@ -3038,7 +3038,7 @@
       <c r="F79" s="11"/>
     </row>
     <row r="80" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="51"/>
+      <c r="A80" s="46"/>
       <c r="B80" s="9" t="s">
         <v>229</v>
       </c>
@@ -3048,7 +3048,7 @@
       <c r="F80" s="11"/>
     </row>
     <row r="81" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="51"/>
+      <c r="A81" s="46"/>
       <c r="B81" s="9" t="s">
         <v>232</v>
       </c>
@@ -3058,7 +3058,7 @@
       <c r="F81" s="11"/>
     </row>
     <row r="82" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="51"/>
+      <c r="A82" s="46"/>
       <c r="B82" s="9" t="s">
         <v>234</v>
       </c>
@@ -3068,7 +3068,7 @@
       <c r="F82" s="11"/>
     </row>
     <row r="83" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="51"/>
+      <c r="A83" s="46"/>
       <c r="B83" s="9" t="s">
         <v>236</v>
       </c>
@@ -3078,7 +3078,7 @@
       <c r="F83" s="11"/>
     </row>
     <row r="84" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="51"/>
+      <c r="A84" s="46"/>
       <c r="B84" s="9" t="s">
         <v>238</v>
       </c>
@@ -3088,7 +3088,7 @@
       <c r="F84" s="11"/>
     </row>
     <row r="85" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="51"/>
+      <c r="A85" s="46"/>
       <c r="B85" s="9" t="s">
         <v>240</v>
       </c>
@@ -3098,7 +3098,7 @@
       <c r="F85" s="11"/>
     </row>
     <row r="86" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="51"/>
+      <c r="A86" s="46"/>
       <c r="B86" s="9" t="s">
         <v>242</v>
       </c>
@@ -3108,7 +3108,7 @@
       <c r="F86" s="11"/>
     </row>
     <row r="87" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="52"/>
+      <c r="A87" s="47"/>
       <c r="B87" s="12" t="s">
         <v>244</v>
       </c>
@@ -3120,7 +3120,7 @@
       <c r="F87" s="13"/>
     </row>
     <row r="88" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="54" t="s">
+      <c r="A88" s="50" t="s">
         <v>246</v>
       </c>
       <c r="B88" s="9" t="s">
@@ -3134,7 +3134,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="51"/>
+      <c r="A89" s="46"/>
       <c r="B89" s="9" t="s">
         <v>250</v>
       </c>
@@ -3146,7 +3146,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="51"/>
+      <c r="A90" s="46"/>
       <c r="B90" s="9" t="s">
         <v>252</v>
       </c>
@@ -3156,7 +3156,7 @@
       <c r="F90" s="11"/>
     </row>
     <row r="91" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="51"/>
+      <c r="A91" s="46"/>
       <c r="B91" s="9" t="s">
         <v>254</v>
       </c>
@@ -3166,7 +3166,7 @@
       <c r="F91" s="11"/>
     </row>
     <row r="92" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="51"/>
+      <c r="A92" s="46"/>
       <c r="B92" s="9" t="s">
         <v>256</v>
       </c>
@@ -3176,7 +3176,7 @@
       <c r="F92" s="11"/>
     </row>
     <row r="93" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="51"/>
+      <c r="A93" s="46"/>
       <c r="B93" s="9" t="s">
         <v>258</v>
       </c>
@@ -3186,7 +3186,7 @@
       <c r="F93" s="11"/>
     </row>
     <row r="94" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="51"/>
+      <c r="A94" s="46"/>
       <c r="B94" s="15" t="s">
         <v>260</v>
       </c>
@@ -3196,7 +3196,7 @@
       <c r="F94" s="11"/>
     </row>
     <row r="95" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A95" s="51"/>
+      <c r="A95" s="46"/>
       <c r="B95" s="9" t="s">
         <v>262</v>
       </c>
@@ -3206,7 +3206,7 @@
       <c r="F95" s="11"/>
     </row>
     <row r="96" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="51"/>
+      <c r="A96" s="46"/>
       <c r="B96" s="9" t="s">
         <v>264</v>
       </c>
@@ -3216,7 +3216,7 @@
       <c r="F96" s="11"/>
     </row>
     <row r="97" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="51"/>
+      <c r="A97" s="46"/>
       <c r="B97" s="9" t="s">
         <v>266</v>
       </c>
@@ -3228,7 +3228,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="51"/>
+      <c r="A98" s="46"/>
       <c r="B98" s="9" t="s">
         <v>269</v>
       </c>
@@ -3240,7 +3240,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="51"/>
+      <c r="A99" s="46"/>
       <c r="B99" s="9" t="s">
         <v>271</v>
       </c>
@@ -3252,7 +3252,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="51"/>
+      <c r="A100" s="46"/>
       <c r="B100" s="9" t="s">
         <v>273</v>
       </c>
@@ -3264,7 +3264,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="51"/>
+      <c r="A101" s="46"/>
       <c r="B101" s="9" t="s">
         <v>276</v>
       </c>
@@ -3276,7 +3276,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A102" s="51"/>
+      <c r="A102" s="46"/>
       <c r="B102" s="9" t="s">
         <v>278</v>
       </c>
@@ -3286,7 +3286,7 @@
       <c r="F102" s="11"/>
     </row>
     <row r="103" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A103" s="51"/>
+      <c r="A103" s="46"/>
       <c r="B103" s="9" t="s">
         <v>280</v>
       </c>
@@ -3298,7 +3298,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A104" s="51"/>
+      <c r="A104" s="46"/>
       <c r="B104" s="9" t="s">
         <v>283</v>
       </c>
@@ -3310,7 +3310,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="51"/>
+      <c r="A105" s="46"/>
       <c r="B105" s="9" t="s">
         <v>285</v>
       </c>
@@ -3322,7 +3322,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A106" s="51"/>
+      <c r="A106" s="46"/>
       <c r="B106" s="9" t="s">
         <v>287</v>
       </c>
@@ -3334,7 +3334,7 @@
       </c>
     </row>
     <row r="107" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="51"/>
+      <c r="A107" s="46"/>
       <c r="B107" s="9" t="s">
         <v>280</v>
       </c>
@@ -3346,7 +3346,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A108" s="51"/>
+      <c r="A108" s="46"/>
       <c r="B108" s="9" t="s">
         <v>283</v>
       </c>
@@ -3358,7 +3358,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A109" s="51"/>
+      <c r="A109" s="46"/>
       <c r="B109" s="9" t="s">
         <v>285</v>
       </c>
@@ -3370,7 +3370,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A110" s="52"/>
+      <c r="A110" s="47"/>
       <c r="B110" s="12" t="s">
         <v>287</v>
       </c>
@@ -3384,7 +3384,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A111" s="55" t="s">
+      <c r="A111" s="51" t="s">
         <v>294</v>
       </c>
       <c r="B111" s="9" t="s">
@@ -3396,7 +3396,7 @@
       <c r="F111" s="11"/>
     </row>
     <row r="112" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A112" s="51"/>
+      <c r="A112" s="46"/>
       <c r="B112" s="9" t="s">
         <v>297</v>
       </c>
@@ -3406,7 +3406,7 @@
       <c r="F112" s="11"/>
     </row>
     <row r="113" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A113" s="51"/>
+      <c r="A113" s="46"/>
       <c r="B113" s="9" t="s">
         <v>145</v>
       </c>
@@ -3416,7 +3416,7 @@
       <c r="F113" s="11"/>
     </row>
     <row r="114" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A114" s="51"/>
+      <c r="A114" s="46"/>
       <c r="B114" s="15" t="s">
         <v>300</v>
       </c>
@@ -3426,7 +3426,7 @@
       <c r="F114" s="11"/>
     </row>
     <row r="115" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A115" s="51"/>
+      <c r="A115" s="46"/>
       <c r="B115" s="9" t="s">
         <v>302</v>
       </c>
@@ -3436,7 +3436,7 @@
       <c r="F115" s="11"/>
     </row>
     <row r="116" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A116" s="51"/>
+      <c r="A116" s="46"/>
       <c r="B116" s="9" t="s">
         <v>304</v>
       </c>
@@ -3448,7 +3448,7 @@
       </c>
     </row>
     <row r="117" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A117" s="51"/>
+      <c r="A117" s="46"/>
       <c r="B117" s="9" t="s">
         <v>304</v>
       </c>
@@ -3460,7 +3460,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A118" s="51"/>
+      <c r="A118" s="46"/>
       <c r="B118" s="9" t="s">
         <v>306</v>
       </c>
@@ -3472,7 +3472,7 @@
       </c>
     </row>
     <row r="119" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A119" s="51"/>
+      <c r="A119" s="46"/>
       <c r="B119" s="9" t="s">
         <v>309</v>
       </c>
@@ -3484,7 +3484,7 @@
       </c>
     </row>
     <row r="120" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A120" s="51"/>
+      <c r="A120" s="46"/>
       <c r="B120" s="9" t="s">
         <v>309</v>
       </c>
@@ -3496,7 +3496,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="51"/>
+      <c r="A121" s="46"/>
       <c r="B121" s="9" t="s">
         <v>311</v>
       </c>
@@ -3506,7 +3506,7 @@
       <c r="F121" s="11"/>
     </row>
     <row r="122" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A122" s="51"/>
+      <c r="A122" s="46"/>
       <c r="B122" s="9" t="s">
         <v>313</v>
       </c>
@@ -3518,7 +3518,7 @@
       </c>
     </row>
     <row r="123" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A123" s="51"/>
+      <c r="A123" s="46"/>
       <c r="B123" s="9" t="s">
         <v>313</v>
       </c>
@@ -3530,7 +3530,7 @@
       </c>
     </row>
     <row r="124" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A124" s="51"/>
+      <c r="A124" s="46"/>
       <c r="B124" s="9" t="s">
         <v>315</v>
       </c>
@@ -3542,7 +3542,7 @@
       </c>
     </row>
     <row r="125" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A125" s="51"/>
+      <c r="A125" s="46"/>
       <c r="B125" s="9" t="s">
         <v>318</v>
       </c>
@@ -3552,7 +3552,7 @@
       <c r="F125" s="11"/>
     </row>
     <row r="126" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A126" s="51"/>
+      <c r="A126" s="46"/>
       <c r="B126" s="9" t="s">
         <v>320</v>
       </c>
@@ -3562,7 +3562,7 @@
       <c r="F126" s="11"/>
     </row>
     <row r="127" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A127" s="51"/>
+      <c r="A127" s="46"/>
       <c r="B127" s="9" t="s">
         <v>322</v>
       </c>
@@ -3572,7 +3572,7 @@
       <c r="F127" s="11"/>
     </row>
     <row r="128" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A128" s="51"/>
+      <c r="A128" s="46"/>
       <c r="B128" s="9" t="s">
         <v>324</v>
       </c>
@@ -3582,7 +3582,7 @@
       <c r="F128" s="11"/>
     </row>
     <row r="129" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A129" s="51"/>
+      <c r="A129" s="46"/>
       <c r="B129" s="9" t="s">
         <v>326</v>
       </c>
@@ -3594,7 +3594,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A130" s="51"/>
+      <c r="A130" s="46"/>
       <c r="B130" s="9" t="s">
         <v>328</v>
       </c>
@@ -3604,7 +3604,7 @@
       <c r="F130" s="11"/>
     </row>
     <row r="131" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A131" s="51"/>
+      <c r="A131" s="46"/>
       <c r="B131" s="9" t="s">
         <v>330</v>
       </c>
@@ -3614,7 +3614,7 @@
       <c r="F131" s="11"/>
     </row>
     <row r="132" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A132" s="51"/>
+      <c r="A132" s="46"/>
       <c r="B132" s="9" t="s">
         <v>332</v>
       </c>
@@ -3626,7 +3626,7 @@
       </c>
     </row>
     <row r="133" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A133" s="51"/>
+      <c r="A133" s="46"/>
       <c r="B133" s="9" t="s">
         <v>334</v>
       </c>
@@ -3636,7 +3636,7 @@
       <c r="F133" s="11"/>
     </row>
     <row r="134" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A134" s="51"/>
+      <c r="A134" s="46"/>
       <c r="B134" s="9" t="s">
         <v>336</v>
       </c>
@@ -3648,7 +3648,7 @@
       </c>
     </row>
     <row r="135" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A135" s="51"/>
+      <c r="A135" s="46"/>
       <c r="B135" s="9" t="s">
         <v>336</v>
       </c>
@@ -3660,7 +3660,7 @@
       </c>
     </row>
     <row r="136" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A136" s="51"/>
+      <c r="A136" s="46"/>
       <c r="B136" s="9" t="s">
         <v>338</v>
       </c>
@@ -3670,7 +3670,7 @@
       <c r="F136" s="11"/>
     </row>
     <row r="137" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A137" s="52"/>
+      <c r="A137" s="47"/>
       <c r="B137" s="12" t="s">
         <v>340</v>
       </c>
@@ -3682,33 +3682,33 @@
       <c r="F137" s="13"/>
     </row>
     <row r="138" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A138" s="56" t="s">
+      <c r="A138" s="52" t="s">
         <v>185</v>
       </c>
       <c r="F138" s="11"/>
     </row>
     <row r="139" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A139" s="48"/>
+      <c r="A139" s="53"/>
       <c r="F139" s="11"/>
     </row>
     <row r="140" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A140" s="48"/>
+      <c r="A140" s="53"/>
       <c r="F140" s="11"/>
     </row>
     <row r="141" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A141" s="48"/>
+      <c r="A141" s="53"/>
       <c r="F141" s="11"/>
     </row>
     <row r="142" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A142" s="48"/>
+      <c r="A142" s="53"/>
       <c r="F142" s="11"/>
     </row>
     <row r="143" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A143" s="48"/>
+      <c r="A143" s="53"/>
       <c r="F143" s="11"/>
     </row>
     <row r="144" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A144" s="49"/>
+      <c r="A144" s="44"/>
       <c r="B144" s="12"/>
       <c r="C144" s="12"/>
       <c r="D144" s="12"/>
@@ -3717,11 +3717,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="A61:A87"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A7:A14"/>
     <mergeCell ref="A88:A110"/>
     <mergeCell ref="A111:A137"/>
     <mergeCell ref="A138:A144"/>
@@ -3729,11 +3729,11 @@
     <mergeCell ref="A40:A48"/>
     <mergeCell ref="A49:A57"/>
     <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A7:A14"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="A61:A87"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3843,7 +3843,7 @@
       <c r="B5" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="64"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="12" t="s">
         <v>357</v>
       </c>
@@ -3881,7 +3881,7 @@
       <c r="B7" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="64"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="12" t="s">
         <v>363</v>
       </c>
